--- a/info_BaseDeDatos.xlsx
+++ b/info_BaseDeDatos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\github\SistemasExpertosProyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB6D773-DCCA-43C9-A3CB-DE99274D3885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D52C804-A013-4416-BA42-45F9CE04C381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{E1868DB6-A803-4276-916E-58B95DA5751A}"/>
+    <workbookView xWindow="14160" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{E1868DB6-A803-4276-916E-58B95DA5751A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>Usuarios</t>
   </si>
@@ -133,15 +133,9 @@
     <t>String</t>
   </si>
   <si>
-    <t>rtn</t>
-  </si>
-  <si>
     <t>latitud</t>
   </si>
   <si>
-    <t>Array(String)</t>
-  </si>
-  <si>
     <t>ubicaciones</t>
   </si>
   <si>
@@ -181,16 +175,40 @@
     <t>vendidos</t>
   </si>
   <si>
-    <t>division</t>
-  </si>
-  <si>
     <t>indice</t>
   </si>
   <si>
-    <t>subCategorias</t>
-  </si>
-  <si>
     <t>nombreSubCategoria</t>
+  </si>
+  <si>
+    <t>ubicación</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>carrito</t>
+  </si>
+  <si>
+    <t>favoritos</t>
+  </si>
+  <si>
+    <t>urlImagen</t>
+  </si>
+  <si>
+    <t>opciones</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>idTienda</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>tipoDato</t>
   </si>
 </sst>
 </file>
@@ -232,42 +250,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -300,21 +288,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E83912-8B9B-4C69-9D44-57A9F199DC50}">
-  <dimension ref="B3:F38"/>
+  <dimension ref="B3:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F36"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,359 +626,388 @@
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="H4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="H5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="H11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="H12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="H14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="E23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="F24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="6" t="s">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
+    <row r="35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info_BaseDeDatos.xlsx
+++ b/info_BaseDeDatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\github\SistemasExpertosProyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D52C804-A013-4416-BA42-45F9CE04C381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76106FB-82F0-4EDB-8479-24E81A5E8A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{E1868DB6-A803-4276-916E-58B95DA5751A}"/>
+    <workbookView xWindow="4620" yWindow="1050" windowWidth="21600" windowHeight="11385" xr2:uid="{E1868DB6-A803-4276-916E-58B95DA5751A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>Usuarios</t>
   </si>
@@ -209,14 +209,31 @@
   </si>
   <si>
     <t>tipoDato</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>orden</t>
+  </si>
+  <si>
+    <t>usuariosMotoristas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -288,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -301,6 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E83912-8B9B-4C69-9D44-57A9F199DC50}">
-  <dimension ref="B3:I35"/>
+  <dimension ref="B3:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,20 +646,27 @@
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>25</v>
       </c>
@@ -660,8 +685,20 @@
       <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -680,8 +717,12 @@
       <c r="I5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -700,8 +741,12 @@
       <c r="I6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -720,8 +765,12 @@
       <c r="I7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -740,8 +789,12 @@
       <c r="I8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
@@ -760,8 +813,12 @@
       <c r="I9" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
@@ -780,8 +837,12 @@
       <c r="I10" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
@@ -795,8 +856,12 @@
       <c r="I11" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>49</v>
       </c>
@@ -810,8 +875,12 @@
       <c r="I12" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>51</v>
       </c>
@@ -825,7 +894,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>52</v>
       </c>
@@ -843,7 +912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
@@ -851,7 +920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E16" s="4" t="s">
         <v>47</v>
       </c>
@@ -1010,5 +1079,6 @@
     <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>